--- a/excels/blocks/block0.xlsx
+++ b/excels/blocks/block0.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,108 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="5"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="5"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color theme="9" tint="0.5999938962981048"/>
+        </stop>
+        <stop position="1">
+          <color theme="7" tint="0.8000122074037904"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -42,12 +134,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999145481734672"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,235 +741,412 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Module description</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Module Description</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>array description</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Register Array</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>array_name</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>array_len</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>array_offset</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>start_addr</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>end_addr</t>
-        </is>
-      </c>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Array_Offset</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Array_Name</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Array_Len</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Start_Addr</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>End_Addr</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>reg0_array</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Register Description</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>MSB</t>
+        </is>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>LSB</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>User Visible</t>
+        </is>
+      </c>
+      <c r="J9" s="9" t="inlineStr">
+        <is>
+          <t>Full Description (Chinese)</t>
+        </is>
+      </c>
+      <c r="K9" s="9" t="inlineStr">
+        <is>
+          <t>Name For User</t>
+        </is>
+      </c>
+      <c r="L9" s="9" t="inlineStr">
+        <is>
+          <t>Description For User(Chinese)</t>
+        </is>
+      </c>
+      <c r="M9" s="9" t="inlineStr">
+        <is>
+          <t>Name In Code</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="inlineStr">
+        <is>
+          <t>reg0</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr"/>
+      <c r="D10" s="14" t="inlineStr"/>
+      <c r="E10" s="14" t="inlineStr"/>
+      <c r="F10" s="14" t="inlineStr"/>
+      <c r="G10" s="15" t="inlineStr"/>
+      <c r="H10" s="16" t="inlineStr"/>
+      <c r="I10" s="15" t="inlineStr"/>
+      <c r="J10" s="17" t="inlineStr"/>
+      <c r="K10" s="18" t="inlineStr"/>
+      <c r="L10" s="18" t="inlineStr"/>
+      <c r="M10" s="18" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="inlineStr"/>
+      <c r="B11" s="14" t="inlineStr"/>
+      <c r="C11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>filed0</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="H11" s="19" t="inlineStr"/>
+      <c r="I11" s="20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="19" t="inlineStr"/>
+      <c r="L11" s="19" t="inlineStr"/>
+      <c r="M11" s="19" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="inlineStr"/>
+      <c r="B12" s="14" t="inlineStr"/>
+      <c r="C12" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>filed1</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G12" s="22" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
+      </c>
+      <c r="H12" s="19" t="inlineStr"/>
+      <c r="I12" s="20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J12" s="21" t="inlineStr"/>
+      <c r="K12" s="19" t="inlineStr"/>
+      <c r="L12" s="19" t="inlineStr"/>
+      <c r="M12" s="19" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="23" t="n"/>
+      <c r="B13" s="24" t="n"/>
+      <c r="C13" s="24" t="n"/>
+      <c r="D13" s="24" t="n"/>
+      <c r="E13" s="24" t="n"/>
+      <c r="F13" s="24" t="n"/>
+      <c r="G13" s="24" t="n"/>
+      <c r="H13" s="24" t="n"/>
+      <c r="I13" s="24" t="n"/>
+      <c r="J13" s="24" t="n"/>
+      <c r="K13" s="24" t="n"/>
+      <c r="L13" s="24" t="n"/>
+      <c r="M13" s="25" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>0x4</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>register description</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MSB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>LSB</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Field Name</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Access</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Default</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
+        <is>
+          <t>reg1</t>
+        </is>
+      </c>
+      <c r="C14" s="13" t="inlineStr"/>
+      <c r="D14" s="14" t="inlineStr"/>
+      <c r="E14" s="14" t="inlineStr"/>
+      <c r="F14" s="14" t="inlineStr"/>
+      <c r="G14" s="15" t="inlineStr"/>
+      <c r="H14" s="16" t="inlineStr"/>
+      <c r="I14" s="15" t="inlineStr"/>
+      <c r="J14" s="17" t="inlineStr"/>
+      <c r="K14" s="18" t="inlineStr"/>
+      <c r="L14" s="18" t="inlineStr"/>
+      <c r="M14" s="18" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="inlineStr"/>
+      <c r="B15" s="14" t="inlineStr"/>
+      <c r="C15" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26" t="inlineStr">
+        <is>
+          <t>filed0</t>
+        </is>
+      </c>
+      <c r="F15" s="26" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G15" s="27" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
+      </c>
+      <c r="H15" s="28" t="inlineStr"/>
+      <c r="I15" s="29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J15" s="30" t="inlineStr"/>
+      <c r="K15" s="19" t="inlineStr"/>
+      <c r="L15" s="19" t="inlineStr"/>
+      <c r="M15" s="19" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="inlineStr"/>
+      <c r="B16" s="14" t="inlineStr"/>
+      <c r="C16" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>0x0</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>reg0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>filed0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0x0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="C12" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>filed1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0x0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>reg1</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0x0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="C16" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0x0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" s="19" t="inlineStr"/>
+      <c r="I16" s="20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J16" s="21" t="inlineStr"/>
+      <c r="K16" s="19" t="inlineStr"/>
+      <c r="L16" s="19" t="inlineStr"/>
+      <c r="M16" s="19" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="23" t="n"/>
+      <c r="B17" s="24" t="n"/>
+      <c r="C17" s="24" t="n"/>
+      <c r="D17" s="24" t="n"/>
+      <c r="E17" s="24" t="n"/>
+      <c r="F17" s="24" t="n"/>
+      <c r="G17" s="24" t="n"/>
+      <c r="H17" s="24" t="n"/>
+      <c r="I17" s="24" t="n"/>
+      <c r="J17" s="24" t="n"/>
+      <c r="K17" s="24" t="n"/>
+      <c r="L17" s="24" t="n"/>
+      <c r="M17" s="25" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/excels/blocks/block0.xlsx
+++ b/excels/blocks/block0.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="block0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'block0'!$A$8:$M$8</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,6 +52,13 @@
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -126,7 +135,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -150,16 +159,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.3999450666829432"/>
-      </left>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color theme="4" tint="0.3999450666829432"/>
+        <color theme="4"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="thin">
-        <color theme="4" tint="0.3999450666829432"/>
+        <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -263,6 +303,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.3999450666829432"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -291,80 +344,76 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,10 +781,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -812,339 +862,471 @@
           <t>End_Addr</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="6" t="n"/>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>reg0_array</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>Register Description</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Register Description</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n"/>
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>Offset</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>MSB</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>LSB</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>Field Name</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>Access</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>User Visible</t>
+        </is>
+      </c>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Full Description (Chinese)</t>
+        </is>
+      </c>
+      <c r="K8" s="9" t="inlineStr">
+        <is>
+          <t>Name For User</t>
+        </is>
+      </c>
+      <c r="L8" s="9" t="inlineStr">
+        <is>
+          <t>Description For User(Chinese)</t>
+        </is>
+      </c>
+      <c r="M8" s="9" t="inlineStr">
+        <is>
+          <t>Name In Code</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>MSB</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>LSB</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>Field Name</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>Access</t>
-        </is>
-      </c>
-      <c r="G9" s="10" t="inlineStr">
-        <is>
-          <t>Default</t>
-        </is>
-      </c>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>User Visible</t>
-        </is>
-      </c>
-      <c r="J9" s="9" t="inlineStr">
-        <is>
-          <t>Full Description (Chinese)</t>
-        </is>
-      </c>
-      <c r="K9" s="9" t="inlineStr">
-        <is>
-          <t>Name For User</t>
-        </is>
-      </c>
-      <c r="L9" s="9" t="inlineStr">
-        <is>
-          <t>Description For User(Chinese)</t>
-        </is>
-      </c>
-      <c r="M9" s="9" t="inlineStr">
-        <is>
-          <t>Name In Code</t>
-        </is>
-      </c>
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="inlineStr">
+        <is>
+          <t>reg0</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr"/>
+      <c r="D9" s="14" t="inlineStr"/>
+      <c r="E9" s="14" t="inlineStr"/>
+      <c r="F9" s="14" t="inlineStr"/>
+      <c r="G9" s="15" t="inlineStr"/>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>reg0 instance</t>
+        </is>
+      </c>
+      <c r="I9" s="15" t="inlineStr"/>
+      <c r="J9" s="17" t="inlineStr"/>
+      <c r="K9" s="18" t="inlineStr"/>
+      <c r="L9" s="18" t="inlineStr"/>
+      <c r="M9" s="18" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="13" t="inlineStr"/>
+      <c r="B10" s="14" t="inlineStr"/>
+      <c r="C10" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="inlineStr">
+        <is>
+          <t>field 1</t>
+        </is>
+      </c>
+      <c r="F10" s="19" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G10" s="19" t="inlineStr">
         <is>
           <t>0x0</t>
         </is>
       </c>
-      <c r="B10" s="12" t="inlineStr">
-        <is>
-          <t>reg0</t>
-        </is>
-      </c>
-      <c r="C10" s="13" t="inlineStr"/>
-      <c r="D10" s="14" t="inlineStr"/>
-      <c r="E10" s="14" t="inlineStr"/>
-      <c r="F10" s="14" t="inlineStr"/>
-      <c r="G10" s="15" t="inlineStr"/>
-      <c r="H10" s="16" t="inlineStr"/>
-      <c r="I10" s="15" t="inlineStr"/>
-      <c r="J10" s="17" t="inlineStr"/>
-      <c r="K10" s="18" t="inlineStr"/>
-      <c r="L10" s="18" t="inlineStr"/>
-      <c r="M10" s="18" t="inlineStr"/>
+      <c r="H10" s="20" t="inlineStr">
+        <is>
+          <t>field 1 instance</t>
+        </is>
+      </c>
+      <c r="I10" s="21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J10" s="22" t="inlineStr">
+        <is>
+          <t>field 1 声明</t>
+        </is>
+      </c>
+      <c r="K10" s="20" t="inlineStr"/>
+      <c r="L10" s="20" t="inlineStr"/>
+      <c r="M10" s="20" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="inlineStr"/>
       <c r="B11" s="14" t="inlineStr"/>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="E11" s="19" t="inlineStr">
+        <is>
+          <t>field 0</t>
+        </is>
+      </c>
+      <c r="F11" s="19" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G11" s="23" t="inlineStr">
+        <is>
+          <t>0x1</t>
+        </is>
+      </c>
+      <c r="H11" s="20" t="inlineStr">
+        <is>
+          <t>field 0 instance</t>
+        </is>
+      </c>
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J11" s="22" t="inlineStr">
+        <is>
+          <t>field 0 声明</t>
+        </is>
+      </c>
+      <c r="K11" s="20" t="inlineStr"/>
+      <c r="L11" s="20" t="inlineStr"/>
+      <c r="M11" s="20" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="n"/>
+      <c r="B12" s="25" t="n"/>
+      <c r="C12" s="25" t="n"/>
+      <c r="D12" s="25" t="n"/>
+      <c r="E12" s="25" t="n"/>
+      <c r="F12" s="25" t="n"/>
+      <c r="G12" s="25" t="n"/>
+      <c r="H12" s="25" t="n"/>
+      <c r="I12" s="25" t="n"/>
+      <c r="J12" s="25" t="n"/>
+      <c r="K12" s="25" t="n"/>
+      <c r="L12" s="25" t="n"/>
+      <c r="M12" s="26" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="inlineStr">
+        <is>
+          <t>reg1</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="inlineStr"/>
+      <c r="D13" s="14" t="inlineStr"/>
+      <c r="E13" s="14" t="inlineStr"/>
+      <c r="F13" s="14" t="inlineStr"/>
+      <c r="G13" s="15" t="inlineStr"/>
+      <c r="H13" s="16" t="inlineStr">
+        <is>
+          <t>reg1 instance</t>
+        </is>
+      </c>
+      <c r="I13" s="15" t="inlineStr"/>
+      <c r="J13" s="17" t="inlineStr"/>
+      <c r="K13" s="18" t="inlineStr"/>
+      <c r="L13" s="18" t="inlineStr"/>
+      <c r="M13" s="18" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="inlineStr"/>
+      <c r="B14" s="14" t="inlineStr"/>
+      <c r="C14" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>filed0</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="E14" s="27" t="inlineStr">
+        <is>
+          <t>field 0</t>
+        </is>
+      </c>
+      <c r="F14" s="27" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G14" s="27" t="inlineStr">
         <is>
           <t>0x0</t>
         </is>
       </c>
-      <c r="H11" s="19" t="inlineStr"/>
-      <c r="I11" s="20" t="inlineStr">
+      <c r="H14" s="28" t="inlineStr">
+        <is>
+          <t>field 0 instance</t>
+        </is>
+      </c>
+      <c r="I14" s="29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J14" s="30" t="inlineStr">
+        <is>
+          <t>field 0 声明</t>
+        </is>
+      </c>
+      <c r="K14" s="20" t="inlineStr"/>
+      <c r="L14" s="20" t="inlineStr"/>
+      <c r="M14" s="20" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="n"/>
+      <c r="B15" s="25" t="n"/>
+      <c r="C15" s="25" t="n"/>
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="25" t="n"/>
+      <c r="F15" s="25" t="n"/>
+      <c r="G15" s="25" t="n"/>
+      <c r="H15" s="25" t="n"/>
+      <c r="I15" s="25" t="n"/>
+      <c r="J15" s="25" t="n"/>
+      <c r="K15" s="25" t="n"/>
+      <c r="L15" s="25" t="n"/>
+      <c r="M15" s="26" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="inlineStr">
+        <is>
+          <t>0x8</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="inlineStr">
+        <is>
+          <t>reg2</t>
+        </is>
+      </c>
+      <c r="C16" s="13" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="14" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
+      <c r="G16" s="15" t="inlineStr"/>
+      <c r="H16" s="16" t="inlineStr"/>
+      <c r="I16" s="15" t="inlineStr"/>
+      <c r="J16" s="17" t="inlineStr"/>
+      <c r="K16" s="18" t="inlineStr"/>
+      <c r="L16" s="18" t="inlineStr"/>
+      <c r="M16" s="18" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="inlineStr"/>
+      <c r="B17" s="14" t="inlineStr"/>
+      <c r="C17" s="27" t="n">
+        <v>31</v>
+      </c>
+      <c r="D17" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" s="27" t="inlineStr">
+        <is>
+          <t>field2</t>
+        </is>
+      </c>
+      <c r="F17" s="27" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="G17" s="27" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="H17" s="28" t="inlineStr">
+        <is>
+          <t>rsv</t>
+        </is>
+      </c>
+      <c r="I17" s="29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J17" s="30" t="inlineStr">
+        <is>
+          <t>rsv 块</t>
+        </is>
+      </c>
+      <c r="K17" s="20" t="inlineStr"/>
+      <c r="L17" s="20" t="inlineStr"/>
+      <c r="M17" s="20" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="inlineStr"/>
+      <c r="B18" s="14" t="inlineStr"/>
+      <c r="C18" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" s="19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="19" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="H18" s="20" t="inlineStr">
+        <is>
+          <t>rsv</t>
+        </is>
+      </c>
+      <c r="I18" s="21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J11" s="21" t="inlineStr"/>
-      <c r="K11" s="19" t="inlineStr"/>
-      <c r="L11" s="19" t="inlineStr"/>
-      <c r="M11" s="19" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="inlineStr"/>
-      <c r="B12" s="14" t="inlineStr"/>
-      <c r="C12" s="6" t="n">
+      <c r="J18" s="22" t="inlineStr">
+        <is>
+          <t>rsv 块</t>
+        </is>
+      </c>
+      <c r="K18" s="20" t="inlineStr"/>
+      <c r="L18" s="20" t="inlineStr"/>
+      <c r="M18" s="20" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="inlineStr"/>
+      <c r="B19" s="14" t="inlineStr"/>
+      <c r="C19" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>filed1</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="D19" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19" t="inlineStr">
+        <is>
+          <t>field0</t>
+        </is>
+      </c>
+      <c r="F19" s="19" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="G12" s="22" t="inlineStr">
-        <is>
-          <t>0x1</t>
-        </is>
-      </c>
-      <c r="H12" s="19" t="inlineStr"/>
-      <c r="I12" s="20" t="inlineStr">
+      <c r="G19" s="19" t="inlineStr">
+        <is>
+          <t>0x0</t>
+        </is>
+      </c>
+      <c r="H19" s="20" t="inlineStr"/>
+      <c r="I19" s="21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J12" s="21" t="inlineStr"/>
-      <c r="K12" s="19" t="inlineStr"/>
-      <c r="L12" s="19" t="inlineStr"/>
-      <c r="M12" s="19" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="n"/>
-      <c r="B13" s="24" t="n"/>
-      <c r="C13" s="24" t="n"/>
-      <c r="D13" s="24" t="n"/>
-      <c r="E13" s="24" t="n"/>
-      <c r="F13" s="24" t="n"/>
-      <c r="G13" s="24" t="n"/>
-      <c r="H13" s="24" t="n"/>
-      <c r="I13" s="24" t="n"/>
-      <c r="J13" s="24" t="n"/>
-      <c r="K13" s="24" t="n"/>
-      <c r="L13" s="24" t="n"/>
-      <c r="M13" s="25" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="B14" s="12" t="inlineStr">
-        <is>
-          <t>reg1</t>
-        </is>
-      </c>
-      <c r="C14" s="13" t="inlineStr"/>
-      <c r="D14" s="14" t="inlineStr"/>
-      <c r="E14" s="14" t="inlineStr"/>
-      <c r="F14" s="14" t="inlineStr"/>
-      <c r="G14" s="15" t="inlineStr"/>
-      <c r="H14" s="16" t="inlineStr"/>
-      <c r="I14" s="15" t="inlineStr"/>
-      <c r="J14" s="17" t="inlineStr"/>
-      <c r="K14" s="18" t="inlineStr"/>
-      <c r="L14" s="18" t="inlineStr"/>
-      <c r="M14" s="18" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="inlineStr"/>
-      <c r="B15" s="14" t="inlineStr"/>
-      <c r="C15" s="26" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="26" t="inlineStr">
-        <is>
-          <t>filed0</t>
-        </is>
-      </c>
-      <c r="F15" s="26" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="G15" s="27" t="inlineStr">
-        <is>
-          <t>0x1</t>
-        </is>
-      </c>
-      <c r="H15" s="28" t="inlineStr"/>
-      <c r="I15" s="29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J15" s="30" t="inlineStr"/>
-      <c r="K15" s="19" t="inlineStr"/>
-      <c r="L15" s="19" t="inlineStr"/>
-      <c r="M15" s="19" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="13" t="inlineStr"/>
-      <c r="B16" s="14" t="inlineStr"/>
-      <c r="C16" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>0x0</t>
-        </is>
-      </c>
-      <c r="H16" s="19" t="inlineStr"/>
-      <c r="I16" s="20" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J16" s="21" t="inlineStr"/>
-      <c r="K16" s="19" t="inlineStr"/>
-      <c r="L16" s="19" t="inlineStr"/>
-      <c r="M16" s="19" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="23" t="n"/>
-      <c r="B17" s="24" t="n"/>
-      <c r="C17" s="24" t="n"/>
-      <c r="D17" s="24" t="n"/>
-      <c r="E17" s="24" t="n"/>
-      <c r="F17" s="24" t="n"/>
-      <c r="G17" s="24" t="n"/>
-      <c r="H17" s="24" t="n"/>
-      <c r="I17" s="24" t="n"/>
-      <c r="J17" s="24" t="n"/>
-      <c r="K17" s="24" t="n"/>
-      <c r="L17" s="24" t="n"/>
-      <c r="M17" s="25" t="n"/>
+      <c r="J19" s="22" t="inlineStr"/>
+      <c r="K19" s="20" t="inlineStr"/>
+      <c r="L19" s="20" t="inlineStr"/>
+      <c r="M19" s="20" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="24" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="25" t="n"/>
+      <c r="D20" s="25" t="n"/>
+      <c r="E20" s="25" t="n"/>
+      <c r="F20" s="25" t="n"/>
+      <c r="G20" s="25" t="n"/>
+      <c r="H20" s="25" t="n"/>
+      <c r="I20" s="25" t="n"/>
+      <c r="J20" s="25" t="n"/>
+      <c r="K20" s="25" t="n"/>
+      <c r="L20" s="25" t="n"/>
+      <c r="M20" s="26" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <autoFilter ref="A8:M8"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
